--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Cd5l</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.7414518817238</v>
+        <v>6.795051999999999</v>
       </c>
       <c r="H2">
-        <v>6.7414518817238</v>
+        <v>20.385156</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6049503343582541</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6049503343582541</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.764119036855239</v>
+        <v>0.7920173333333332</v>
       </c>
       <c r="N2">
-        <v>0.764119036855239</v>
+        <v>2.376052</v>
       </c>
       <c r="O2">
-        <v>0.197329770193995</v>
+        <v>0.1802777704012534</v>
       </c>
       <c r="P2">
-        <v>0.197329770193995</v>
+        <v>0.1802777704012534</v>
       </c>
       <c r="Q2">
-        <v>5.151271718868728</v>
+        <v>5.381798964901332</v>
       </c>
       <c r="R2">
-        <v>5.151271718868728</v>
+        <v>48.43619068411199</v>
       </c>
       <c r="S2">
-        <v>0.197329770193995</v>
+        <v>0.1090590974815988</v>
       </c>
       <c r="T2">
-        <v>0.197329770193995</v>
+        <v>0.1090590974815988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.7414518817238</v>
+        <v>6.795051999999999</v>
       </c>
       <c r="H3">
-        <v>6.7414518817238</v>
+        <v>20.385156</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6049503343582541</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6049503343582541</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.45493406477185</v>
+        <v>1.48869</v>
       </c>
       <c r="N3">
-        <v>1.45493406477185</v>
+        <v>4.46607</v>
       </c>
       <c r="O3">
-        <v>0.375729161035462</v>
+        <v>0.3388533340414797</v>
       </c>
       <c r="P3">
-        <v>0.375729161035462</v>
+        <v>0.3388533340414797</v>
       </c>
       <c r="Q3">
-        <v>9.808367988740246</v>
+        <v>10.11572596188</v>
       </c>
       <c r="R3">
-        <v>9.808367988740246</v>
+        <v>91.04153365692</v>
       </c>
       <c r="S3">
-        <v>0.375729161035462</v>
+        <v>0.2049894377268023</v>
       </c>
       <c r="T3">
-        <v>0.375729161035462</v>
+        <v>0.2049894377268023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.7414518817238</v>
+        <v>6.795051999999999</v>
       </c>
       <c r="H4">
-        <v>6.7414518817238</v>
+        <v>20.385156</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6049503343582541</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6049503343582541</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.371635540794851</v>
+        <v>0.4248016666666667</v>
       </c>
       <c r="N4">
-        <v>0.371635540794851</v>
+        <v>1.274405</v>
       </c>
       <c r="O4">
-        <v>0.095972947046027</v>
+        <v>0.0966927036900747</v>
       </c>
       <c r="P4">
-        <v>0.095972947046027</v>
+        <v>0.0966927036900747</v>
       </c>
       <c r="Q4">
-        <v>2.50536311580689</v>
+        <v>2.886549414686666</v>
       </c>
       <c r="R4">
-        <v>2.50536311580689</v>
+        <v>25.97894473218</v>
       </c>
       <c r="S4">
-        <v>0.095972947046027</v>
+        <v>0.05849428342731428</v>
       </c>
       <c r="T4">
-        <v>0.095972947046027</v>
+        <v>0.05849428342731428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.7414518817238</v>
+        <v>6.795051999999999</v>
       </c>
       <c r="H5">
-        <v>6.7414518817238</v>
+        <v>20.385156</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6049503343582541</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6049503343582541</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.07949923618767</v>
+        <v>1.426577666666667</v>
       </c>
       <c r="N5">
-        <v>1.07949923618767</v>
+        <v>4.279733</v>
       </c>
       <c r="O5">
-        <v>0.2787750676624771</v>
+        <v>0.3247154200129742</v>
       </c>
       <c r="P5">
-        <v>0.2787750676624771</v>
+        <v>0.3247154200129743</v>
       </c>
       <c r="Q5">
-        <v>7.277392157116774</v>
+        <v>9.693669427038666</v>
       </c>
       <c r="R5">
-        <v>7.277392157116774</v>
+        <v>87.243024843348</v>
       </c>
       <c r="S5">
-        <v>0.2787750676624771</v>
+        <v>0.1964367019081296</v>
       </c>
       <c r="T5">
-        <v>0.2787750676624771</v>
+        <v>0.1964367019081297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.7414518817238</v>
+        <v>6.795051999999999</v>
       </c>
       <c r="H6">
-        <v>6.7414518817238</v>
+        <v>20.385156</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6049503343582541</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.6049503343582541</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.202106890213326</v>
+        <v>0.26123</v>
       </c>
       <c r="N6">
-        <v>0.202106890213326</v>
+        <v>0.7836900000000001</v>
       </c>
       <c r="O6">
-        <v>0.05219305406203892</v>
+        <v>0.05946077185421796</v>
       </c>
       <c r="P6">
-        <v>0.05219305406203892</v>
+        <v>0.05946077185421797</v>
       </c>
       <c r="Q6">
-        <v>1.362493875337972</v>
+        <v>1.77507143396</v>
       </c>
       <c r="R6">
-        <v>1.362493875337972</v>
+        <v>15.97564290564</v>
       </c>
       <c r="S6">
-        <v>0.05219305406203892</v>
+        <v>0.03597081381440902</v>
       </c>
       <c r="T6">
-        <v>0.05219305406203892</v>
+        <v>0.03597081381440902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>4.437361</v>
+      </c>
+      <c r="H7">
+        <v>13.312083</v>
+      </c>
+      <c r="I7">
+        <v>0.3950496656417459</v>
+      </c>
+      <c r="J7">
+        <v>0.3950496656417459</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7920173333333332</v>
+      </c>
+      <c r="N7">
+        <v>2.376052</v>
+      </c>
+      <c r="O7">
+        <v>0.1802777704012534</v>
+      </c>
+      <c r="P7">
+        <v>0.1802777704012534</v>
+      </c>
+      <c r="Q7">
+        <v>3.514466826257333</v>
+      </c>
+      <c r="R7">
+        <v>31.63020143631599</v>
+      </c>
+      <c r="S7">
+        <v>0.07121867291965459</v>
+      </c>
+      <c r="T7">
+        <v>0.0712186729196546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>4.437361</v>
+      </c>
+      <c r="H8">
+        <v>13.312083</v>
+      </c>
+      <c r="I8">
+        <v>0.3950496656417459</v>
+      </c>
+      <c r="J8">
+        <v>0.3950496656417459</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.48869</v>
+      </c>
+      <c r="N8">
+        <v>4.46607</v>
+      </c>
+      <c r="O8">
+        <v>0.3388533340414797</v>
+      </c>
+      <c r="P8">
+        <v>0.3388533340414797</v>
+      </c>
+      <c r="Q8">
+        <v>6.60585494709</v>
+      </c>
+      <c r="R8">
+        <v>59.45269452381</v>
+      </c>
+      <c r="S8">
+        <v>0.1338638963146774</v>
+      </c>
+      <c r="T8">
+        <v>0.1338638963146774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>4.437361</v>
+      </c>
+      <c r="H9">
+        <v>13.312083</v>
+      </c>
+      <c r="I9">
+        <v>0.3950496656417459</v>
+      </c>
+      <c r="J9">
+        <v>0.3950496656417459</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4248016666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.274405</v>
+      </c>
+      <c r="O9">
+        <v>0.0966927036900747</v>
+      </c>
+      <c r="P9">
+        <v>0.0966927036900747</v>
+      </c>
+      <c r="Q9">
+        <v>1.884998348401667</v>
+      </c>
+      <c r="R9">
+        <v>16.964985135615</v>
+      </c>
+      <c r="S9">
+        <v>0.03819842026276042</v>
+      </c>
+      <c r="T9">
+        <v>0.03819842026276042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>4.437361</v>
+      </c>
+      <c r="H10">
+        <v>13.312083</v>
+      </c>
+      <c r="I10">
+        <v>0.3950496656417459</v>
+      </c>
+      <c r="J10">
+        <v>0.3950496656417459</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.426577666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.279733</v>
+      </c>
+      <c r="O10">
+        <v>0.3247154200129742</v>
+      </c>
+      <c r="P10">
+        <v>0.3247154200129743</v>
+      </c>
+      <c r="Q10">
+        <v>6.330240101537667</v>
+      </c>
+      <c r="R10">
+        <v>56.972160913839</v>
+      </c>
+      <c r="S10">
+        <v>0.1282787181048446</v>
+      </c>
+      <c r="T10">
+        <v>0.1282787181048446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>4.437361</v>
+      </c>
+      <c r="H11">
+        <v>13.312083</v>
+      </c>
+      <c r="I11">
+        <v>0.3950496656417459</v>
+      </c>
+      <c r="J11">
+        <v>0.3950496656417459</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.26123</v>
+      </c>
+      <c r="N11">
+        <v>0.7836900000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.05946077185421796</v>
+      </c>
+      <c r="P11">
+        <v>0.05946077185421797</v>
+      </c>
+      <c r="Q11">
+        <v>1.15917181403</v>
+      </c>
+      <c r="R11">
+        <v>10.43254632627</v>
+      </c>
+      <c r="S11">
+        <v>0.02348995803980894</v>
+      </c>
+      <c r="T11">
+        <v>0.02348995803980895</v>
       </c>
     </row>
   </sheetData>
